--- a/Documentation/Test Matrix - PACMAN JLS.xlsx
+++ b/Documentation/Test Matrix - PACMAN JLS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stewa\Desktop\Capstone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JacobStewartHW\1PacmanInJava\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC76ED05-AFD8-448B-8CB3-ADE16343A6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1DA995-0D15-4239-9897-5E021600C339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -671,8 +671,8 @@
   </sheetPr>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,10 +832,10 @@
       <c r="C11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="D11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
@@ -862,10 +862,10 @@
       <c r="C13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="D13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
